--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Serping1-Selp.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Serping1-Selp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Serping1</t>
+  </si>
+  <si>
+    <t>Selp</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Serping1</t>
-  </si>
-  <si>
-    <t>Selp</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.744420666666667</v>
+        <v>37.962092</v>
       </c>
       <c r="H2">
-        <v>23.233262</v>
+        <v>113.886276</v>
       </c>
       <c r="I2">
-        <v>0.02402057549124297</v>
+        <v>0.1172058542789894</v>
       </c>
       <c r="J2">
-        <v>0.02402057549124297</v>
+        <v>0.1172058542789894</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.110155</v>
+        <v>27.20211533333334</v>
       </c>
       <c r="N2">
-        <v>63.330465</v>
+        <v>81.606346</v>
       </c>
       <c r="O2">
-        <v>0.6828970503646842</v>
+        <v>0.6967541499838615</v>
       </c>
       <c r="P2">
-        <v>0.6828970503646842</v>
+        <v>0.6967541499838614</v>
       </c>
       <c r="Q2">
-        <v>163.4859206585367</v>
+        <v>1032.649204878611</v>
       </c>
       <c r="R2">
-        <v>1471.37328592683</v>
+        <v>9293.842843907496</v>
       </c>
       <c r="S2">
-        <v>0.01640358015103205</v>
+        <v>0.08166366537128963</v>
       </c>
       <c r="T2">
-        <v>0.01640358015103205</v>
+        <v>0.08166366537128962</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,14 +590,14 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3">
         <v>3</v>
       </c>
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.744420666666667</v>
+        <v>37.962092</v>
       </c>
       <c r="H3">
-        <v>23.233262</v>
+        <v>113.886276</v>
       </c>
       <c r="I3">
-        <v>0.02402057549124297</v>
+        <v>0.1172058542789894</v>
       </c>
       <c r="J3">
-        <v>0.02402057549124297</v>
+        <v>0.1172058542789894</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.3162533333333333</v>
+        <v>0.68891</v>
       </c>
       <c r="N3">
-        <v>0.94876</v>
+        <v>2.06673</v>
       </c>
       <c r="O3">
-        <v>0.01023054868622862</v>
+        <v>0.01764571966494059</v>
       </c>
       <c r="P3">
-        <v>0.01023054868622862</v>
+        <v>0.01764571966494059</v>
       </c>
       <c r="Q3">
-        <v>2.449198850568889</v>
+        <v>26.15246479972</v>
       </c>
       <c r="R3">
-        <v>22.04278965512</v>
+        <v>235.37218319748</v>
       </c>
       <c r="S3">
-        <v>0.0002457436670343911</v>
+        <v>0.002068181647696926</v>
       </c>
       <c r="T3">
-        <v>0.0002457436670343911</v>
+        <v>0.002068181647696926</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.744420666666667</v>
+        <v>37.962092</v>
       </c>
       <c r="H4">
-        <v>23.233262</v>
+        <v>113.886276</v>
       </c>
       <c r="I4">
-        <v>0.02402057549124297</v>
+        <v>0.1172058542789894</v>
       </c>
       <c r="J4">
-        <v>0.02402057549124297</v>
+        <v>0.1172058542789894</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.07194533333333333</v>
+        <v>0.163512</v>
       </c>
       <c r="N4">
-        <v>0.215836</v>
+        <v>0.490536</v>
       </c>
       <c r="O4">
-        <v>0.002327375422910789</v>
+        <v>0.004188191365858771</v>
       </c>
       <c r="P4">
-        <v>0.00232737542291079</v>
+        <v>0.00418819136585877</v>
       </c>
       <c r="Q4">
-        <v>0.5571749263368889</v>
+        <v>6.207257587103999</v>
       </c>
       <c r="R4">
-        <v>5.014574337032</v>
+        <v>55.86531828393599</v>
       </c>
       <c r="S4">
-        <v>5.590489704249214E-05</v>
+        <v>0.0004908805469193649</v>
       </c>
       <c r="T4">
-        <v>5.590489704249215E-05</v>
+        <v>0.0004908805469193648</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.744420666666667</v>
+        <v>37.962092</v>
       </c>
       <c r="H5">
-        <v>23.233262</v>
+        <v>113.886276</v>
       </c>
       <c r="I5">
-        <v>0.02402057549124297</v>
+        <v>0.1172058542789894</v>
       </c>
       <c r="J5">
-        <v>0.02402057549124297</v>
+        <v>0.1172058542789894</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.283255666666667</v>
+        <v>10.92507633333333</v>
       </c>
       <c r="N5">
-        <v>27.849767</v>
+        <v>32.775229</v>
       </c>
       <c r="O5">
-        <v>0.3003060807724011</v>
+        <v>0.2798345709832591</v>
       </c>
       <c r="P5">
-        <v>0.3003060807724011</v>
+        <v>0.2798345709832591</v>
       </c>
       <c r="Q5">
-        <v>71.89343703888377</v>
+        <v>414.7387528730226</v>
       </c>
       <c r="R5">
-        <v>647.040933349954</v>
+        <v>3732.648775857203</v>
       </c>
       <c r="S5">
-        <v>0.007213524883672768</v>
+        <v>0.03279824994888739</v>
       </c>
       <c r="T5">
-        <v>0.007213524883672768</v>
+        <v>0.03279824994888739</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.744420666666667</v>
+        <v>37.962092</v>
       </c>
       <c r="H6">
-        <v>23.233262</v>
+        <v>113.886276</v>
       </c>
       <c r="I6">
-        <v>0.02402057549124297</v>
+        <v>0.1172058542789894</v>
       </c>
       <c r="J6">
-        <v>0.02402057549124297</v>
+        <v>0.1172058542789894</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.131037</v>
+        <v>0.06158233333333333</v>
       </c>
       <c r="N6">
-        <v>0.393111</v>
+        <v>0.184747</v>
       </c>
       <c r="O6">
-        <v>0.004238944753775474</v>
+        <v>0.001577368002079991</v>
       </c>
       <c r="P6">
-        <v>0.004238944753775475</v>
+        <v>0.001577368002079991</v>
       </c>
       <c r="Q6">
-        <v>1.014805650898</v>
+        <v>2.337794203574667</v>
       </c>
       <c r="R6">
-        <v>9.133250858082</v>
+        <v>21.040147832172</v>
       </c>
       <c r="S6">
-        <v>0.0001018218924612721</v>
+        <v>0.0001848767641961281</v>
       </c>
       <c r="T6">
-        <v>0.0001018218924612721</v>
+        <v>0.0001848767641961281</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -859,10 +859,10 @@
         <v>646.139694</v>
       </c>
       <c r="I7">
-        <v>0.6680356506811497</v>
+        <v>0.6649734935475002</v>
       </c>
       <c r="J7">
-        <v>0.6680356506811497</v>
+        <v>0.6649734935475002</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.110155</v>
+        <v>27.20211533333334</v>
       </c>
       <c r="N7">
-        <v>63.330465</v>
+        <v>81.606346</v>
       </c>
       <c r="O7">
-        <v>0.6828970503646842</v>
+        <v>0.6967541499838615</v>
       </c>
       <c r="P7">
-        <v>0.6828970503646842</v>
+        <v>0.6967541499838614</v>
       </c>
       <c r="Q7">
-        <v>4546.703030664191</v>
+        <v>5858.788825877569</v>
       </c>
       <c r="R7">
-        <v>40920.32727597771</v>
+        <v>52729.09943289813</v>
       </c>
       <c r="S7">
-        <v>0.4561995753886096</v>
+        <v>0.4633230412584874</v>
       </c>
       <c r="T7">
-        <v>0.4561995753886096</v>
+        <v>0.4633230412584873</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>646.139694</v>
       </c>
       <c r="I8">
-        <v>0.6680356506811497</v>
+        <v>0.6649734935475002</v>
       </c>
       <c r="J8">
-        <v>0.6680356506811497</v>
+        <v>0.6649734935475002</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.3162533333333333</v>
+        <v>0.68891</v>
       </c>
       <c r="N8">
-        <v>0.94876</v>
+        <v>2.06673</v>
       </c>
       <c r="O8">
-        <v>0.01023054868622862</v>
+        <v>0.01764571966494059</v>
       </c>
       <c r="P8">
-        <v>0.01023054868622862</v>
+        <v>0.01764571966494059</v>
       </c>
       <c r="Q8">
-        <v>68.11461067549334</v>
+        <v>148.37736553118</v>
       </c>
       <c r="R8">
-        <v>613.03149607944</v>
+        <v>1335.39628978062</v>
       </c>
       <c r="S8">
-        <v>0.006834371248429917</v>
+        <v>0.01173393585175537</v>
       </c>
       <c r="T8">
-        <v>0.006834371248429918</v>
+        <v>0.01173393585175537</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>646.139694</v>
       </c>
       <c r="I9">
-        <v>0.6680356506811497</v>
+        <v>0.6649734935475002</v>
       </c>
       <c r="J9">
-        <v>0.6680356506811497</v>
+        <v>0.6649734935475002</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.07194533333333333</v>
+        <v>0.163512</v>
       </c>
       <c r="N9">
-        <v>0.215836</v>
+        <v>0.490536</v>
       </c>
       <c r="O9">
-        <v>0.002327375422910789</v>
+        <v>0.004188191365858771</v>
       </c>
       <c r="P9">
-        <v>0.00232737542291079</v>
+        <v>0.00418819136585877</v>
       </c>
       <c r="Q9">
-        <v>15.49557855490933</v>
+        <v>35.21719788177599</v>
       </c>
       <c r="R9">
-        <v>139.460206994184</v>
+        <v>316.954780935984</v>
       </c>
       <c r="S9">
-        <v>0.001554769755023525</v>
+        <v>0.002785036244200584</v>
       </c>
       <c r="T9">
-        <v>0.001554769755023525</v>
+        <v>0.002785036244200583</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>646.139694</v>
       </c>
       <c r="I10">
-        <v>0.6680356506811497</v>
+        <v>0.6649734935475002</v>
       </c>
       <c r="J10">
-        <v>0.6680356506811497</v>
+        <v>0.6649734935475002</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.283255666666667</v>
+        <v>10.92507633333333</v>
       </c>
       <c r="N10">
-        <v>27.849767</v>
+        <v>32.775229</v>
       </c>
       <c r="O10">
-        <v>0.3003060807724011</v>
+        <v>0.2798345709832591</v>
       </c>
       <c r="P10">
-        <v>0.3003060807724011</v>
+        <v>0.2798345709832591</v>
       </c>
       <c r="Q10">
-        <v>1999.426658594589</v>
+        <v>2353.041826315547</v>
       </c>
       <c r="R10">
-        <v>17994.8399273513</v>
+        <v>21177.37643683992</v>
       </c>
       <c r="S10">
-        <v>0.2006151680722968</v>
+        <v>0.1860825722821037</v>
       </c>
       <c r="T10">
-        <v>0.2006151680722968</v>
+        <v>0.1860825722821037</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>646.139694</v>
       </c>
       <c r="I11">
-        <v>0.6680356506811497</v>
+        <v>0.6649734935475002</v>
       </c>
       <c r="J11">
-        <v>0.6680356506811497</v>
+        <v>0.6649734935475002</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.131037</v>
+        <v>0.06158233333333333</v>
       </c>
       <c r="N11">
-        <v>0.393111</v>
+        <v>0.184747</v>
       </c>
       <c r="O11">
-        <v>0.004238944753775474</v>
+        <v>0.001577368002079991</v>
       </c>
       <c r="P11">
-        <v>0.004238944753775475</v>
+        <v>0.001577368002079991</v>
       </c>
       <c r="Q11">
-        <v>28.222735694226</v>
+        <v>13.26359667193533</v>
       </c>
       <c r="R11">
-        <v>254.004621248034</v>
+        <v>119.372370047418</v>
       </c>
       <c r="S11">
-        <v>0.002831766216789845</v>
+        <v>0.001048907910953172</v>
       </c>
       <c r="T11">
-        <v>0.002831766216789845</v>
+        <v>0.001048907910953172</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3580746666666667</v>
+        <v>69.75056333333333</v>
       </c>
       <c r="H12">
-        <v>1.074224</v>
+        <v>209.25169</v>
       </c>
       <c r="I12">
-        <v>0.001110626595891054</v>
+        <v>0.2153509970399969</v>
       </c>
       <c r="J12">
-        <v>0.001110626595891054</v>
+        <v>0.2153509970399969</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.110155</v>
+        <v>27.20211533333334</v>
       </c>
       <c r="N12">
-        <v>63.330465</v>
+        <v>81.606346</v>
       </c>
       <c r="O12">
-        <v>0.6828970503646842</v>
+        <v>0.6967541499838615</v>
       </c>
       <c r="P12">
-        <v>0.6828970503646842</v>
+        <v>0.6967541499838614</v>
       </c>
       <c r="Q12">
-        <v>7.559011714906668</v>
+        <v>1897.362868358304</v>
       </c>
       <c r="R12">
-        <v>68.03110543416001</v>
+        <v>17076.26581522474</v>
       </c>
       <c r="S12">
-        <v>0.000758443626390571</v>
+        <v>0.1500467008907801</v>
       </c>
       <c r="T12">
-        <v>0.000758443626390571</v>
+        <v>0.1500467008907801</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>27</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3580746666666667</v>
+        <v>69.75056333333333</v>
       </c>
       <c r="H13">
-        <v>1.074224</v>
+        <v>209.25169</v>
       </c>
       <c r="I13">
-        <v>0.001110626595891054</v>
+        <v>0.2153509970399969</v>
       </c>
       <c r="J13">
-        <v>0.001110626595891054</v>
+        <v>0.2153509970399969</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3162533333333333</v>
+        <v>0.68891</v>
       </c>
       <c r="N13">
-        <v>0.94876</v>
+        <v>2.06673</v>
       </c>
       <c r="O13">
-        <v>0.01023054868622862</v>
+        <v>0.01764571966494059</v>
       </c>
       <c r="P13">
-        <v>0.01023054868622862</v>
+        <v>0.01764571966494059</v>
       </c>
       <c r="Q13">
-        <v>0.1132423069155556</v>
+        <v>48.05186058596666</v>
       </c>
       <c r="R13">
-        <v>1.01918076224</v>
+        <v>432.4667452737</v>
       </c>
       <c r="S13">
-        <v>1.136231946148379E-05</v>
+        <v>0.003800023323333237</v>
       </c>
       <c r="T13">
-        <v>1.136231946148379E-05</v>
+        <v>0.003800023323333237</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>69.75056333333333</v>
+      </c>
+      <c r="H14">
+        <v>209.25169</v>
+      </c>
+      <c r="I14">
+        <v>0.2153509970399969</v>
+      </c>
+      <c r="J14">
+        <v>0.2153509970399969</v>
+      </c>
+      <c r="K14">
         <v>2</v>
       </c>
-      <c r="F14">
+      <c r="L14">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G14">
-        <v>0.3580746666666667</v>
-      </c>
-      <c r="H14">
-        <v>1.074224</v>
-      </c>
-      <c r="I14">
-        <v>0.001110626595891054</v>
-      </c>
-      <c r="J14">
-        <v>0.001110626595891054</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M14">
-        <v>0.07194533333333333</v>
+        <v>0.163512</v>
       </c>
       <c r="N14">
-        <v>0.215836</v>
+        <v>0.490536</v>
       </c>
       <c r="O14">
-        <v>0.002327375422910789</v>
+        <v>0.004188191365858771</v>
       </c>
       <c r="P14">
-        <v>0.00232737542291079</v>
+        <v>0.00418819136585877</v>
       </c>
       <c r="Q14">
-        <v>0.02576180125155556</v>
+        <v>11.40505411176</v>
       </c>
       <c r="R14">
-        <v>0.231856211264</v>
+        <v>102.64548700584</v>
       </c>
       <c r="S14">
-        <v>2.584845043307912E-06</v>
+        <v>0.000901931186431993</v>
       </c>
       <c r="T14">
-        <v>2.584845043307913E-06</v>
+        <v>0.0009019311864319927</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3580746666666667</v>
+        <v>69.75056333333333</v>
       </c>
       <c r="H15">
-        <v>1.074224</v>
+        <v>209.25169</v>
       </c>
       <c r="I15">
-        <v>0.001110626595891054</v>
+        <v>0.2153509970399969</v>
       </c>
       <c r="J15">
-        <v>0.001110626595891054</v>
+        <v>0.2153509970399969</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.283255666666667</v>
+        <v>10.92507633333333</v>
       </c>
       <c r="N15">
-        <v>27.849767</v>
+        <v>32.775229</v>
       </c>
       <c r="O15">
-        <v>0.3003060807724011</v>
+        <v>0.2798345709832591</v>
       </c>
       <c r="P15">
-        <v>0.3003060807724011</v>
+        <v>0.2798345709832591</v>
       </c>
       <c r="Q15">
-        <v>3.324098678423112</v>
+        <v>762.0302287096677</v>
       </c>
       <c r="R15">
-        <v>29.916888105808</v>
+        <v>6858.272058387009</v>
       </c>
       <c r="S15">
-        <v>0.0003335279202136357</v>
+        <v>0.06026265386750464</v>
       </c>
       <c r="T15">
-        <v>0.0003335279202136357</v>
+        <v>0.06026265386750464</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3580746666666667</v>
+        <v>69.75056333333333</v>
       </c>
       <c r="H16">
-        <v>1.074224</v>
+        <v>209.25169</v>
       </c>
       <c r="I16">
-        <v>0.001110626595891054</v>
+        <v>0.2153509970399969</v>
       </c>
       <c r="J16">
-        <v>0.001110626595891054</v>
+        <v>0.2153509970399969</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,28 +1429,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.131037</v>
+        <v>0.06158233333333333</v>
       </c>
       <c r="N16">
-        <v>0.393111</v>
+        <v>0.184747</v>
       </c>
       <c r="O16">
-        <v>0.004238944753775474</v>
+        <v>0.001577368002079991</v>
       </c>
       <c r="P16">
-        <v>0.004238944753775475</v>
+        <v>0.001577368002079991</v>
       </c>
       <c r="Q16">
-        <v>0.046921030096</v>
+        <v>4.29540244138111</v>
       </c>
       <c r="R16">
-        <v>0.422289270864</v>
+        <v>38.65862197243</v>
       </c>
       <c r="S16">
-        <v>4.707884782055898E-06</v>
+        <v>0.000339687771946914</v>
       </c>
       <c r="T16">
-        <v>4.707884782055899E-06</v>
+        <v>0.0003396877719469139</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>97.08690133333334</v>
+        <v>0.4954383333333333</v>
       </c>
       <c r="H17">
-        <v>291.260704</v>
+        <v>1.486315</v>
       </c>
       <c r="I17">
-        <v>0.301130755038383</v>
+        <v>0.001529638385073511</v>
       </c>
       <c r="J17">
-        <v>0.301130755038383</v>
+        <v>0.001529638385073511</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.110155</v>
+        <v>27.20211533333334</v>
       </c>
       <c r="N17">
-        <v>63.330465</v>
+        <v>81.606346</v>
       </c>
       <c r="O17">
-        <v>0.6828970503646842</v>
+        <v>0.6967541499838615</v>
       </c>
       <c r="P17">
-        <v>0.6828970503646842</v>
+        <v>0.6967541499838614</v>
       </c>
       <c r="Q17">
-        <v>2049.519535616374</v>
+        <v>13.47697068388778</v>
       </c>
       <c r="R17">
-        <v>18445.67582054736</v>
+        <v>121.29273615499</v>
       </c>
       <c r="S17">
-        <v>0.205641304389802</v>
+        <v>0.001065781892774581</v>
       </c>
       <c r="T17">
-        <v>0.205641304389802</v>
+        <v>0.001065781892774581</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>27</v>
       </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>97.08690133333334</v>
+        <v>0.4954383333333333</v>
       </c>
       <c r="H18">
-        <v>291.260704</v>
+        <v>1.486315</v>
       </c>
       <c r="I18">
-        <v>0.301130755038383</v>
+        <v>0.001529638385073511</v>
       </c>
       <c r="J18">
-        <v>0.301130755038383</v>
+        <v>0.001529638385073511</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.3162533333333333</v>
+        <v>0.68891</v>
       </c>
       <c r="N18">
-        <v>0.94876</v>
+        <v>2.06673</v>
       </c>
       <c r="O18">
-        <v>0.01023054868622862</v>
+        <v>0.01764571966494059</v>
       </c>
       <c r="P18">
-        <v>0.01023054868622862</v>
+        <v>0.01764571966494059</v>
       </c>
       <c r="Q18">
-        <v>30.70405616967112</v>
+        <v>0.3413124222166666</v>
       </c>
       <c r="R18">
-        <v>276.3365055270401</v>
+        <v>3.07181179995</v>
       </c>
       <c r="S18">
-        <v>0.003080732850340961</v>
+        <v>2.699157013173963E-05</v>
       </c>
       <c r="T18">
-        <v>0.003080732850340962</v>
+        <v>2.699157013173963E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>97.08690133333334</v>
+        <v>0.4954383333333333</v>
       </c>
       <c r="H19">
-        <v>291.260704</v>
+        <v>1.486315</v>
       </c>
       <c r="I19">
-        <v>0.301130755038383</v>
+        <v>0.001529638385073511</v>
       </c>
       <c r="J19">
-        <v>0.301130755038383</v>
+        <v>0.001529638385073511</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.07194533333333333</v>
+        <v>0.163512</v>
       </c>
       <c r="N19">
-        <v>0.215836</v>
+        <v>0.490536</v>
       </c>
       <c r="O19">
-        <v>0.002327375422910789</v>
+        <v>0.004188191365858771</v>
       </c>
       <c r="P19">
-        <v>0.00232737542291079</v>
+        <v>0.00418819136585877</v>
       </c>
       <c r="Q19">
-        <v>6.984949478727112</v>
+        <v>0.08101011275999999</v>
       </c>
       <c r="R19">
-        <v>62.86454530854401</v>
+        <v>0.7290910148399998</v>
       </c>
       <c r="S19">
-        <v>0.0007008443183589019</v>
+        <v>6.406418277251034E-06</v>
       </c>
       <c r="T19">
-        <v>0.000700844318358902</v>
+        <v>6.406418277251032E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>97.08690133333334</v>
+        <v>0.4954383333333333</v>
       </c>
       <c r="H20">
-        <v>291.260704</v>
+        <v>1.486315</v>
       </c>
       <c r="I20">
-        <v>0.301130755038383</v>
+        <v>0.001529638385073511</v>
       </c>
       <c r="J20">
-        <v>0.301130755038383</v>
+        <v>0.001529638385073511</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>9.283255666666667</v>
+        <v>10.92507633333333</v>
       </c>
       <c r="N20">
-        <v>27.849767</v>
+        <v>32.775229</v>
       </c>
       <c r="O20">
-        <v>0.3003060807724011</v>
+        <v>0.2798345709832591</v>
       </c>
       <c r="P20">
-        <v>0.3003060807724011</v>
+        <v>0.2798345709832591</v>
       </c>
       <c r="Q20">
-        <v>901.2825269617744</v>
+        <v>5.412701610126109</v>
       </c>
       <c r="R20">
-        <v>8111.542742655969</v>
+        <v>48.71431449113499</v>
       </c>
       <c r="S20">
-        <v>0.09043139684561076</v>
+        <v>0.0004280457012465712</v>
       </c>
       <c r="T20">
-        <v>0.09043139684561076</v>
+        <v>0.0004280457012465712</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>97.08690133333334</v>
+        <v>0.4954383333333333</v>
       </c>
       <c r="H21">
-        <v>291.260704</v>
+        <v>1.486315</v>
       </c>
       <c r="I21">
-        <v>0.301130755038383</v>
+        <v>0.001529638385073511</v>
       </c>
       <c r="J21">
-        <v>0.301130755038383</v>
+        <v>0.001529638385073511</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1739,28 +1739,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.131037</v>
+        <v>0.06158233333333333</v>
       </c>
       <c r="N21">
-        <v>0.393111</v>
+        <v>0.184747</v>
       </c>
       <c r="O21">
-        <v>0.004238944753775474</v>
+        <v>0.001577368002079991</v>
       </c>
       <c r="P21">
-        <v>0.004238944753775475</v>
+        <v>0.001577368002079991</v>
       </c>
       <c r="Q21">
-        <v>12.721976290016</v>
+        <v>0.03051024858944444</v>
       </c>
       <c r="R21">
-        <v>114.497786610144</v>
+        <v>0.274592237305</v>
       </c>
       <c r="S21">
-        <v>0.001276476634270401</v>
+        <v>2.412802643368268E-06</v>
       </c>
       <c r="T21">
-        <v>0.001276476634270401</v>
+        <v>2.412802643368268E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>20</v>
@@ -1783,16 +1783,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.7716893333333333</v>
+        <v>0.3044643333333333</v>
       </c>
       <c r="H22">
-        <v>2.315068</v>
+        <v>0.913393</v>
       </c>
       <c r="I22">
-        <v>0.002393519500677988</v>
+        <v>0.0009400167484398999</v>
       </c>
       <c r="J22">
-        <v>0.002393519500677988</v>
+        <v>0.0009400167484398999</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>21.110155</v>
+        <v>27.20211533333334</v>
       </c>
       <c r="N22">
-        <v>63.330465</v>
+        <v>81.606346</v>
       </c>
       <c r="O22">
-        <v>0.6828970503646842</v>
+        <v>0.6967541499838615</v>
       </c>
       <c r="P22">
-        <v>0.6828970503646842</v>
+        <v>0.6967541499838614</v>
       </c>
       <c r="Q22">
-        <v>16.29048143851334</v>
+        <v>8.282073910219779</v>
       </c>
       <c r="R22">
-        <v>146.61433294662</v>
+        <v>74.538665191978</v>
       </c>
       <c r="S22">
-        <v>0.00163452740700335</v>
+        <v>0.0006549605705298358</v>
       </c>
       <c r="T22">
-        <v>0.00163452740700335</v>
+        <v>0.0006549605705298357</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,13 +1830,13 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
         <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -1845,46 +1845,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.7716893333333333</v>
+        <v>0.3044643333333333</v>
       </c>
       <c r="H23">
-        <v>2.315068</v>
+        <v>0.913393</v>
       </c>
       <c r="I23">
-        <v>0.002393519500677988</v>
+        <v>0.0009400167484398999</v>
       </c>
       <c r="J23">
-        <v>0.002393519500677988</v>
+        <v>0.0009400167484398999</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0.3162533333333333</v>
+        <v>0.68891</v>
       </c>
       <c r="N23">
-        <v>0.94876</v>
+        <v>2.06673</v>
       </c>
       <c r="O23">
-        <v>0.01023054868622862</v>
+        <v>0.01764571966494059</v>
       </c>
       <c r="P23">
-        <v>0.01023054868622862</v>
+        <v>0.01764571966494059</v>
       </c>
       <c r="Q23">
-        <v>0.2440493239644445</v>
+        <v>0.2097485238766667</v>
       </c>
       <c r="R23">
-        <v>2.19644391568</v>
+        <v>1.88773671489</v>
       </c>
       <c r="S23">
-        <v>2.448701778312377E-05</v>
+        <v>1.658727202331946E-05</v>
       </c>
       <c r="T23">
-        <v>2.448701778312378E-05</v>
+        <v>1.658727202331946E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,13 +1892,13 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -1907,46 +1907,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.7716893333333333</v>
+        <v>0.3044643333333333</v>
       </c>
       <c r="H24">
-        <v>2.315068</v>
+        <v>0.913393</v>
       </c>
       <c r="I24">
-        <v>0.002393519500677988</v>
+        <v>0.0009400167484398999</v>
       </c>
       <c r="J24">
-        <v>0.002393519500677988</v>
+        <v>0.0009400167484398999</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.07194533333333333</v>
+        <v>0.163512</v>
       </c>
       <c r="N24">
-        <v>0.215836</v>
+        <v>0.490536</v>
       </c>
       <c r="O24">
-        <v>0.002327375422910789</v>
+        <v>0.004188191365858771</v>
       </c>
       <c r="P24">
-        <v>0.00232737542291079</v>
+        <v>0.00418819136585877</v>
       </c>
       <c r="Q24">
-        <v>0.05551944631644445</v>
+        <v>0.04978357207199999</v>
       </c>
       <c r="R24">
-        <v>0.499675016848</v>
+        <v>0.448052148648</v>
       </c>
       <c r="S24">
-        <v>5.570618460135653E-06</v>
+        <v>3.936970029578625E-06</v>
       </c>
       <c r="T24">
-        <v>5.570618460135655E-06</v>
+        <v>3.936970029578624E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,13 +1954,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -1969,16 +1969,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.7716893333333333</v>
+        <v>0.3044643333333333</v>
       </c>
       <c r="H25">
-        <v>2.315068</v>
+        <v>0.913393</v>
       </c>
       <c r="I25">
-        <v>0.002393519500677988</v>
+        <v>0.0009400167484398999</v>
       </c>
       <c r="J25">
-        <v>0.002393519500677988</v>
+        <v>0.0009400167484398999</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>9.283255666666667</v>
+        <v>10.92507633333333</v>
       </c>
       <c r="N25">
-        <v>27.849767</v>
+        <v>32.775229</v>
       </c>
       <c r="O25">
-        <v>0.3003060807724011</v>
+        <v>0.2798345709832591</v>
       </c>
       <c r="P25">
-        <v>0.3003060807724011</v>
+        <v>0.2798345709832591</v>
       </c>
       <c r="Q25">
-        <v>7.16378937657289</v>
+        <v>3.32629608244411</v>
       </c>
       <c r="R25">
-        <v>64.474104389156</v>
+        <v>29.936664741997</v>
       </c>
       <c r="S25">
-        <v>0.000718788460500921</v>
+        <v>0.0002630491835167576</v>
       </c>
       <c r="T25">
-        <v>0.000718788460500921</v>
+        <v>0.0002630491835167576</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,13 +2016,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -2031,16 +2031,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.7716893333333333</v>
+        <v>0.3044643333333333</v>
       </c>
       <c r="H26">
-        <v>2.315068</v>
+        <v>0.913393</v>
       </c>
       <c r="I26">
-        <v>0.002393519500677988</v>
+        <v>0.0009400167484398999</v>
       </c>
       <c r="J26">
-        <v>0.002393519500677988</v>
+        <v>0.0009400167484398999</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -2049,338 +2049,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.131037</v>
+        <v>0.06158233333333333</v>
       </c>
       <c r="N26">
-        <v>0.393111</v>
+        <v>0.184747</v>
       </c>
       <c r="O26">
-        <v>0.004238944753775474</v>
+        <v>0.001577368002079991</v>
       </c>
       <c r="P26">
-        <v>0.004238944753775475</v>
+        <v>0.001577368002079991</v>
       </c>
       <c r="Q26">
-        <v>0.101119855172</v>
+        <v>0.01874962406344444</v>
       </c>
       <c r="R26">
-        <v>0.910078696548</v>
+        <v>0.168746616571</v>
       </c>
       <c r="S26">
-        <v>1.014599693045825E-05</v>
+        <v>1.482752340408374E-06</v>
       </c>
       <c r="T26">
-        <v>1.014599693045825E-05</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>1.066806333333333</v>
-      </c>
-      <c r="H27">
-        <v>3.200419</v>
-      </c>
-      <c r="I27">
-        <v>0.003308872692655397</v>
-      </c>
-      <c r="J27">
-        <v>0.003308872692655397</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>21.110155</v>
-      </c>
-      <c r="N27">
-        <v>63.330465</v>
-      </c>
-      <c r="O27">
-        <v>0.6828970503646842</v>
-      </c>
-      <c r="P27">
-        <v>0.6828970503646842</v>
-      </c>
-      <c r="Q27">
-        <v>22.52044705164834</v>
-      </c>
-      <c r="R27">
-        <v>202.684023464835</v>
-      </c>
-      <c r="S27">
-        <v>0.002259619401846621</v>
-      </c>
-      <c r="T27">
-        <v>0.002259619401846621</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>1.066806333333333</v>
-      </c>
-      <c r="H28">
-        <v>3.200419</v>
-      </c>
-      <c r="I28">
-        <v>0.003308872692655397</v>
-      </c>
-      <c r="J28">
-        <v>0.003308872692655397</v>
-      </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M28">
-        <v>0.3162533333333333</v>
-      </c>
-      <c r="N28">
-        <v>0.94876</v>
-      </c>
-      <c r="O28">
-        <v>0.01023054868622862</v>
-      </c>
-      <c r="P28">
-        <v>0.01023054868622862</v>
-      </c>
-      <c r="Q28">
-        <v>0.3373810589377778</v>
-      </c>
-      <c r="R28">
-        <v>3.03642953044</v>
-      </c>
-      <c r="S28">
-        <v>3.385158317874343E-05</v>
-      </c>
-      <c r="T28">
-        <v>3.385158317874344E-05</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>1.066806333333333</v>
-      </c>
-      <c r="H29">
-        <v>3.200419</v>
-      </c>
-      <c r="I29">
-        <v>0.003308872692655397</v>
-      </c>
-      <c r="J29">
-        <v>0.003308872692655397</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M29">
-        <v>0.07194533333333333</v>
-      </c>
-      <c r="N29">
-        <v>0.215836</v>
-      </c>
-      <c r="O29">
-        <v>0.002327375422910789</v>
-      </c>
-      <c r="P29">
-        <v>0.00232737542291079</v>
-      </c>
-      <c r="Q29">
-        <v>0.07675173725377778</v>
-      </c>
-      <c r="R29">
-        <v>0.690765635284</v>
-      </c>
-      <c r="S29">
-        <v>7.700988982426817E-06</v>
-      </c>
-      <c r="T29">
-        <v>7.700988982426819E-06</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>1.066806333333333</v>
-      </c>
-      <c r="H30">
-        <v>3.200419</v>
-      </c>
-      <c r="I30">
-        <v>0.003308872692655397</v>
-      </c>
-      <c r="J30">
-        <v>0.003308872692655397</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>9.283255666666667</v>
-      </c>
-      <c r="N30">
-        <v>27.849767</v>
-      </c>
-      <c r="O30">
-        <v>0.3003060807724011</v>
-      </c>
-      <c r="P30">
-        <v>0.3003060807724011</v>
-      </c>
-      <c r="Q30">
-        <v>9.903435939152557</v>
-      </c>
-      <c r="R30">
-        <v>89.130923452373</v>
-      </c>
-      <c r="S30">
-        <v>0.000993674590106164</v>
-      </c>
-      <c r="T30">
-        <v>0.000993674590106164</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>1.066806333333333</v>
-      </c>
-      <c r="H31">
-        <v>3.200419</v>
-      </c>
-      <c r="I31">
-        <v>0.003308872692655397</v>
-      </c>
-      <c r="J31">
-        <v>0.003308872692655397</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M31">
-        <v>0.131037</v>
-      </c>
-      <c r="N31">
-        <v>0.393111</v>
-      </c>
-      <c r="O31">
-        <v>0.004238944753775474</v>
-      </c>
-      <c r="P31">
-        <v>0.004238944753775475</v>
-      </c>
-      <c r="Q31">
-        <v>0.139791101501</v>
-      </c>
-      <c r="R31">
-        <v>1.258119913509</v>
-      </c>
-      <c r="S31">
-        <v>1.402612854144252E-05</v>
-      </c>
-      <c r="T31">
-        <v>1.402612854144253E-05</v>
+        <v>1.482752340408374E-06</v>
       </c>
     </row>
   </sheetData>
